--- a/Cryptid_Logs.xlsx
+++ b/Cryptid_Logs.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
@@ -519,6 +519,1042 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a blue structure</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a blue structure</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of forest</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>55</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The habitat not is within one space of mountain</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a blue structure</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>The habitat is on desert or swamp</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of mountain</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The habitat is on desert or swamp</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>66</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The habitat is on water or mountain</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a white structure</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of bear territory</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>16.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a standing stone</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>16.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or swamp</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>14.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a white structure</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of swamp</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>The habitat is on water or mountain</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or mountain</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The habitat not is within one space of mountain</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>56</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The habitat is on water or desert</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>65</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>47</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a white structure</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>53</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or swamp</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>65</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a standing stone</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or desert</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>65</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a black structure</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of mountain</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>46</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The habitat is on water or mountain</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a blue structure</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>7</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>The habitat not is within one space of mountain</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a standing stone</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>9</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Cryptid_Logs.xlsx
+++ b/Cryptid_Logs.xlsx
@@ -1,103 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clehm\PycharmProjects\Cryptid-Bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC2C8C-888C-48A7-8ABF-7E9E417A426D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
-  <si>
-    <t>Load_Success</t>
-  </si>
-  <si>
-    <t>Players</t>
-  </si>
-  <si>
-    <t>Run_Time</t>
-  </si>
-  <si>
-    <t>Bot_Clue</t>
-  </si>
-  <si>
-    <t>Spaces_Ruled_Out</t>
-  </si>
-  <si>
-    <t>Possible_Spaces</t>
-  </si>
-  <si>
-    <t>Guess_Attempted</t>
-  </si>
-  <si>
-    <t>Guess_Success</t>
-  </si>
-  <si>
-    <t>Correct_Space</t>
-  </si>
-  <si>
-    <t>Space 1</t>
-  </si>
-  <si>
-    <t>Freq</t>
-  </si>
-  <si>
-    <t>Space 2</t>
-  </si>
-  <si>
-    <t>Space 3</t>
-  </si>
-  <si>
-    <t>Space 4</t>
-  </si>
-  <si>
-    <t>Space 5</t>
-  </si>
-  <si>
-    <t>Space 6</t>
-  </si>
-  <si>
-    <t>Space 7</t>
-  </si>
-  <si>
-    <t>Space 8</t>
-  </si>
-  <si>
-    <t>Space 9</t>
-  </si>
-  <si>
-    <t>Space 10</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -113,26 +43,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -432,130 +353,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13.88671875" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="14.5546875"/>
+    <col customWidth="1" max="3" min="3" style="2" width="9.77734375"/>
+    <col customWidth="1" max="4" min="4" style="1" width="34.6640625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="18.44140625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="14.21875"/>
+    <col customWidth="1" max="7" min="7" style="1" width="16.44140625"/>
+    <col customWidth="1" max="9" min="8" style="1" width="13.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Load_Success</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Players</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Run_Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Bot_Clue</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Spaces_Ruled_Out</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Possible_Spaces</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Guess_Attempted</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Guess_Success</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Correct_Space</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Space 1</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Space 2</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Space 3</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Space 4</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Space 5</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Space 6</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Space 7</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Space 8</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Space 9</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Space 10</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Freq</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or desert</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>88</v>
+      </c>
+      <c r="J2" t="n">
+        <v>88</v>
+      </c>
+      <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>10</v>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="I3"/>
-    </row>
+    <row r="3"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Cryptid_Logs.xlsx
+++ b/Cryptid_Logs.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -573,7 +573,1625 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3"/>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of water</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a white structure</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>53</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" t="n">
+        <v>101</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>54</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>55</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>107</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>44</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>45</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16.3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of forest</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>61</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>66</v>
+      </c>
+      <c r="J5" t="n">
+        <v>60</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>66</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>108</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>55</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or swamp</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>19</v>
+      </c>
+      <c r="J6" t="n">
+        <v>99</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>51</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>30</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of either animal territory</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>57</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>101</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>55</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>45</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>61</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>The habitat is on desert or mountain</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>32</v>
+      </c>
+      <c r="J8" t="n">
+        <v>32</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>82</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a cougar territory</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>59</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>66</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>101</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>91</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>77</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of forest</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>107</v>
+      </c>
+      <c r="J10" t="n">
+        <v>40</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>67</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>79</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or mountain</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>64</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>The habitat is on water or mountain</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>64</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>80</v>
+      </c>
+      <c r="J12" t="n">
+        <v>80</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>33</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>51</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>70</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>48</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>26</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17.39</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a white structure</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>47</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>67</v>
+      </c>
+      <c r="J13" t="n">
+        <v>67</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>60</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>46</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>14.9</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>The habitat is on water or swamp</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>94</v>
+      </c>
+      <c r="J14" t="n">
+        <v>94</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>57</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>31</v>
+      </c>
+      <c r="J15" t="n">
+        <v>42</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>52</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>38</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16.7</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a standing stone</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>33</v>
+      </c>
+      <c r="J16" t="n">
+        <v>80</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>36</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>103</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>94</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a cougar territory</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>59</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>41</v>
+      </c>
+      <c r="J17" t="n">
+        <v>51</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>100</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>30</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>55</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>41</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>29</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a black structure</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>64</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99</v>
+      </c>
+      <c r="J18" t="n">
+        <v>18</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>99</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>92</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>The habitat is on desert or swamp</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>66</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>32</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>34</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>87</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>52</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>104</v>
+      </c>
+      <c r="J20" t="n">
+        <v>104</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>The habitat is on desert or mountain</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>65</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>32</v>
+      </c>
+      <c r="J21" t="n">
+        <v>32</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>89</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>92</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a white structure</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>43</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J22" t="n">
+        <v>64</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>38</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or desert</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>65</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>91</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>91</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>101</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>79</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of forest</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>100</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>52</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of water</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>49</v>
+      </c>
+      <c r="J25" t="n">
+        <v>49</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>97</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>24</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>45</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>78</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>65</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>75</v>
+      </c>
+      <c r="J26" t="n">
+        <v>51</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>100</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>40</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>75</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>106</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>30</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>63</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16.8</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>The habitat is not within two spaces of a cougar territory</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>50</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>80</v>
+      </c>
+      <c r="J27" t="n">
+        <v>72</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>80</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>103</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Cryptid_Logs.xlsx
+++ b/Cryptid_Logs.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
@@ -2192,6 +2192,3665 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>The habitat not is within one space of mountain</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>60</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>50</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>36</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>13</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="n">
+        <v>63</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of desert</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>62</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>64</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>17</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>100</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>65</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6</v>
+      </c>
+      <c r="X29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of swamp</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>59</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>95</v>
+      </c>
+      <c r="J30" t="n">
+        <v>64</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>34</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>60</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a cougar territory</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>61</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>54</v>
+      </c>
+      <c r="J31" t="n">
+        <v>53</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>54</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>55</v>
+      </c>
+      <c r="O31" t="n">
+        <v>9</v>
+      </c>
+      <c r="P31" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>73</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>41</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>55</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n">
+        <v>69</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>56</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>44</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>28</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>78</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>30</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of forest</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>57</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>33</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>82</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>51</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>63</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>93</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>95</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a white structure</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>59</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>80</v>
+      </c>
+      <c r="J34" t="n">
+        <v>80</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>81</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>68</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>42</v>
+      </c>
+      <c r="S34" t="n">
+        <v>9</v>
+      </c>
+      <c r="T34" t="n">
+        <v>107</v>
+      </c>
+      <c r="U34" t="n">
+        <v>7</v>
+      </c>
+      <c r="V34" t="n">
+        <v>60</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>93</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of desert</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>56</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of mountain</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>53</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>76</v>
+      </c>
+      <c r="J36" t="n">
+        <v>82</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>76</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>30</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>The habitat is not within two spaces of a cougar territory</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>45</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>40</v>
+      </c>
+      <c r="J37" t="n">
+        <v>24</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>40</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="n">
+        <v>57</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>28</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="n">
+        <v>46</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a black structure</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>46</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>105</v>
+      </c>
+      <c r="J38" t="n">
+        <v>96</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>84</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>53</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>105</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>28</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of forest</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>53</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>75</v>
+      </c>
+      <c r="J39" t="n">
+        <v>105</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>75</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>76</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>The habitat is not within two spaces of bear territory</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>51</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>59</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>59</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>52</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>25</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>16.8</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a cougar territory</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>64</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>48</v>
+      </c>
+      <c r="J41" t="n">
+        <v>80</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>100</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>69</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>11</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>44</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>77</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of water</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>50</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>66</v>
+      </c>
+      <c r="J42" t="n">
+        <v>25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>66</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>94</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of bear territory</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>65</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>28</v>
+      </c>
+      <c r="J43" t="n">
+        <v>80</v>
+      </c>
+      <c r="K43" t="n">
+        <v>8</v>
+      </c>
+      <c r="L43" t="n">
+        <v>37</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>106</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>28</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="n">
+        <v>93</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of forest</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>54</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>51</v>
+      </c>
+      <c r="J44" t="n">
+        <v>17</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>83</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="n">
+        <v>84</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>51</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>58</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>27</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of forest</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>61</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>22</v>
+      </c>
+      <c r="J45" t="n">
+        <v>51</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>22</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>87</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>9</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>55</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a black structure</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>51</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>99</v>
+      </c>
+      <c r="J46" t="n">
+        <v>16</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>65</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>99</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4</v>
+      </c>
+      <c r="P46" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>87</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a blue structure</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>62</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>99</v>
+      </c>
+      <c r="J47" t="n">
+        <v>81</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>50</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>99</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>28</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>100</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>91</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of mountain</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>47</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>27</v>
+      </c>
+      <c r="J48" t="n">
+        <v>27</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>59</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>108</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>64</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>75</v>
+      </c>
+      <c r="J49" t="n">
+        <v>64</v>
+      </c>
+      <c r="K49" t="n">
+        <v>9</v>
+      </c>
+      <c r="L49" t="n">
+        <v>33</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="n">
+        <v>52</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>25</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="n">
+        <v>42</v>
+      </c>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>75</v>
+      </c>
+      <c r="W49" t="n">
+        <v>12</v>
+      </c>
+      <c r="X49" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a white structure</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>56</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>54</v>
+      </c>
+      <c r="J50" t="n">
+        <v>88</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>41</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>76</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>16.3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of either animal territory</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>62</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>14</v>
+      </c>
+      <c r="J51" t="n">
+        <v>64</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>83</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>101</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>55</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>58</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>14</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a standing stone</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>57</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>92</v>
+      </c>
+      <c r="J52" t="n">
+        <v>48</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>27</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2</v>
+      </c>
+      <c r="P52" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of desert</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>60</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>65</v>
+      </c>
+      <c r="J53" t="n">
+        <v>65</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>84</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16.6</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a standing stone</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>53</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>28</v>
+      </c>
+      <c r="J54" t="n">
+        <v>64</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="n">
+        <v>60</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="n">
+        <v>14</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>16.86</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of bear territory</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>66</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>63</v>
+      </c>
+      <c r="J55" t="n">
+        <v>40</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>82</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>39</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>28</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>63</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>53</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>28</v>
+      </c>
+      <c r="J56" t="n">
+        <v>51</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>28</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>45</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of forest</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>64</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>40</v>
+      </c>
+      <c r="J57" t="n">
+        <v>40</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>20</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>21</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>55</v>
+      </c>
+      <c r="S57" t="n">
+        <v>12</v>
+      </c>
+      <c r="T57" t="n">
+        <v>104</v>
+      </c>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>8</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of either animal territory</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>57</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>106</v>
+      </c>
+      <c r="J58" t="n">
+        <v>16</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>71</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>106</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>87</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>94</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>47</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>16.97</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a blue structure</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>61</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>24</v>
+      </c>
+      <c r="J59" t="n">
+        <v>24</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>88</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>67</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>16.44</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of water</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>61</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>105</v>
+      </c>
+      <c r="J60" t="n">
+        <v>64</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>9</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>19</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>105</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a standing stone</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>62</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>99</v>
+      </c>
+      <c r="J61" t="n">
+        <v>32</v>
+      </c>
+      <c r="K61" t="n">
+        <v>11</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>99</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>22</v>
+      </c>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>103</v>
+      </c>
+      <c r="W61" t="n">
+        <v>3</v>
+      </c>
+      <c r="X61" t="n">
+        <v>87</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of swamp</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>56</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>56</v>
+      </c>
+      <c r="J62" t="n">
+        <v>56</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>59</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>The habitat is not within two spaces of a shack</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>54</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>51</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>12</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>70</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>The habitat is not within three spaces of a blue structure</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>54</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>32</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>57</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>108</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="n">
+        <v>62</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of swamp</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>57</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>47</v>
+      </c>
+      <c r="J65" t="n">
+        <v>48</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>24</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>68</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>The habitat is on mountain or swamp</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>65</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>21</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>70</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>88</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>10</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="n">
+        <v>43</v>
+      </c>
+      <c r="U66" t="n">
+        <v>9</v>
+      </c>
+      <c r="V66" t="n">
+        <v>14</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1</v>
+      </c>
+      <c r="X66" t="n">
+        <v>69</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a shack</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>53</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>37</v>
+      </c>
+      <c r="J67" t="n">
+        <v>80</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>9</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="n">
+        <v>10</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>70</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of desert</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>59</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>45</v>
+      </c>
+      <c r="J68" t="n">
+        <v>16</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>72</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>106</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>45</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of bear territory</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>58</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>40</v>
+      </c>
+      <c r="J69" t="n">
+        <v>53</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>40</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="n">
+        <v>89</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>76</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="n">
+        <v>29</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of a standing stone</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>50</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>The habitat is not within two spaces of a shack</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>51</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>71</v>
+      </c>
+      <c r="J71" t="n">
+        <v>104</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>12</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>103</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>71</v>
+      </c>
+      <c r="S71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of water</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>64</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>65</v>
+      </c>
+      <c r="J72" t="n">
+        <v>65</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>58</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>11</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>105</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a black structure</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>62</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>31</v>
+      </c>
+      <c r="J73" t="n">
+        <v>35</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>68</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>57</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="n">
+        <v>58</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>31</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1</v>
+      </c>
+      <c r="X73" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>69</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>The habitat is within two spaces of bear territory</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>60</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>20</v>
+      </c>
+      <c r="J74" t="n">
+        <v>32</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>99</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>52</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>55</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="n">
+        <v>20</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>42</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1</v>
+      </c>
+      <c r="X74" t="n">
+        <v>44</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>The habitat is within one space of either animal territory</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>61</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>93</v>
+      </c>
+      <c r="J75" t="n">
+        <v>81</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>66</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>53</v>
+      </c>
+      <c r="O75" t="n">
+        <v>4</v>
+      </c>
+      <c r="P75" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>75</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>45</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>93</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>The habitat is on desert or swamp</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>66</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>79</v>
+      </c>
+      <c r="J76" t="n">
+        <v>54</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>79</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>17.5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a green structure</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>58</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>48</v>
+      </c>
+      <c r="J77" t="n">
+        <v>48</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>80</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>107</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+      <c r="P77" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>87</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a black structure</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>64</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>32</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>80</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>68</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+      <c r="P78" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>102</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="n">
+        <v>8</v>
+      </c>
+      <c r="U78" t="n">
+        <v>9</v>
+      </c>
+      <c r="V78" t="n">
+        <v>104</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1</v>
+      </c>
+      <c r="X78" t="n">
+        <v>78</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or swamp</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>65</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>47</v>
+      </c>
+      <c r="J79" t="n">
+        <v>47</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>43</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>49</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Cryptid_Logs.xlsx
+++ b/Cryptid_Logs.xlsx
@@ -1,169 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clehm\PycharmProjects\Cryptid-Bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28418A44-057F-4C5E-B182-68AA573BA35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Load_Success</t>
-  </si>
-  <si>
-    <t>Board_Config</t>
-  </si>
-  <si>
-    <t>Players</t>
-  </si>
-  <si>
-    <t>Run_Time</t>
-  </si>
-  <si>
-    <t>Bot_Clue</t>
-  </si>
-  <si>
-    <t>Spaces_Ruled_Out</t>
-  </si>
-  <si>
-    <t>Possible_Spaces</t>
-  </si>
-  <si>
-    <t>Guess_Attempted</t>
-  </si>
-  <si>
-    <t>Guess_Success</t>
-  </si>
-  <si>
-    <t>Correct_Space</t>
-  </si>
-  <si>
-    <t>Space_1</t>
-  </si>
-  <si>
-    <t>Freq_1</t>
-  </si>
-  <si>
-    <t>Space_2</t>
-  </si>
-  <si>
-    <t>Freq_2</t>
-  </si>
-  <si>
-    <t>Space_3</t>
-  </si>
-  <si>
-    <t>Freq_3</t>
-  </si>
-  <si>
-    <t>Space_4</t>
-  </si>
-  <si>
-    <t>Freq_4</t>
-  </si>
-  <si>
-    <t>Space_5</t>
-  </si>
-  <si>
-    <t>Freq_5</t>
-  </si>
-  <si>
-    <t>Space_6</t>
-  </si>
-  <si>
-    <t>Freq_6</t>
-  </si>
-  <si>
-    <t>Space_7</t>
-  </si>
-  <si>
-    <t>Freq_7</t>
-  </si>
-  <si>
-    <t>Space_8</t>
-  </si>
-  <si>
-    <t>Freq_8</t>
-  </si>
-  <si>
-    <t>Space_9</t>
-  </si>
-  <si>
-    <t>Freq_9</t>
-  </si>
-  <si>
-    <t>Space_10</t>
-  </si>
-  <si>
-    <t>Freq_10</t>
-  </si>
-  <si>
-    <t>Space_11</t>
-  </si>
-  <si>
-    <t>Freq_11</t>
-  </si>
-  <si>
-    <t>Space_12</t>
-  </si>
-  <si>
-    <t>Freq_12</t>
-  </si>
-  <si>
-    <t>Space_13</t>
-  </si>
-  <si>
-    <t>Freq_13</t>
-  </si>
-  <si>
-    <t>Space_14</t>
-  </si>
-  <si>
-    <t>Freq_14</t>
-  </si>
-  <si>
-    <t>Space_15</t>
-  </si>
-  <si>
-    <t>Freq_15</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -179,26 +49,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -498,181 +359,648 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.88671875" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="14.5546875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="23.77734375"/>
+    <col customWidth="1" max="4" min="4" style="2" width="9.77734375"/>
+    <col customWidth="1" max="5" min="5" style="1" width="34.6640625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="18.44140625"/>
+    <col customWidth="1" max="7" min="7" style="1" width="14.21875"/>
+    <col customWidth="1" max="8" min="8" style="1" width="16.44140625"/>
+    <col customWidth="1" max="10" min="9" style="1" width="13.88671875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Load_Success</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Board_Config</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Players</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Run_Time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Bot_Clue</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Spaces_Ruled_Out</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Possible_Spaces</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Guess_Attempted</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Guess_Success</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Correct_Space</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Space_1</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Freq_1</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Space_2</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Freq_2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Space_3</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Freq_3</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Space_4</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Freq_4</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Space_5</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Freq_5</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Space_6</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Freq_6</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Space_7</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Freq_7</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Space_8</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Freq_8</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Space_9</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Freq_9</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Space_10</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Freq_10</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Space_11</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Freq_11</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Space_12</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Freq_12</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Space_13</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Freq_13</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Space_14</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Freq_14</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Space_15</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Freq_15</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4f,2,3,5f,1f,6f|8,8;1,6;8,2;5,11;0,9;6,11;2,1;7,4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>375.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>The habitat is on forest or swamp</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>68</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="O2" t="n">
+        <v>61</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>94</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3f,2,4f,6,1,5f|5,8;0,1;7,9;1,9;2,9;5,3;7,2;6,9</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>384.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of swamp</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>57</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>32</v>
+      </c>
+      <c r="K3" t="n">
+        <v>32</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>92</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1f,6,3,2,5f,4f|2,5;2,2;1,2;4,4;8,7;1,5;1,9;8,9</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>348.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>The habitat is not within one space of an animal's territory</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>51</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>33</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5f,1f,6f,4f,2f,3f|4,8;7,10;6,2;1,8;1,2;1,9;4,10;3,4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>286.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>The habitat is on desert or mountain</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>65</v>
+      </c>
+      <c r="G5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K5" t="n">
+        <v>16</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>93</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>102</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1f,2f,3,5f,4f,6f|7,0;8,10;2,7;7,2;3,8;7,1;3,9;6,7</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>363.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>The habitat is not within two spaces of a standing stone</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>53</v>
+      </c>
+      <c r="G6" t="n">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>41</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>101</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>38</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>23</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>72</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>41</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>49</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3,5f,6,1f,4f,2f|7,8;5,0;8,1;3,11;8,4;7,6;5,4;2,7</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>397.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>The habitat is within three spaces of a blue structure</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>64</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>76</v>
+      </c>
+      <c r="K7" t="n">
+        <v>45</v>
+      </c>
+      <c r="L7" t="n">
+        <v>25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="O7" t="n">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>84</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>57</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>46</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Cryptid_Logs.xlsx
+++ b/Cryptid_Logs.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AM8" sqref="AM8"/>
@@ -1000,6 +1000,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
